--- a/Documentation/Seguimiento.xlsx
+++ b/Documentation/Seguimiento.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blancafort\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\buscoPiso\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Admin" sheetId="3" r:id="rId3"/>
     <sheet name="Others" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>Registro</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Vista</t>
-  </si>
-  <si>
     <t>Clientes</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Estadisticas</t>
   </si>
   <si>
-    <t>Puntuar comercial / amañado</t>
-  </si>
-  <si>
     <t>Estimacion</t>
   </si>
   <si>
@@ -117,13 +111,28 @@
   </si>
   <si>
     <t>Hecho</t>
+  </si>
+  <si>
+    <t>Pagina principal</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Puntuar comercial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +178,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -238,9 +267,7 @@
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -252,19 +279,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
@@ -655,131 +684,156 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N21" s="7"/>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:C21">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -788,90 +842,117 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E10" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:C7">
@@ -884,56 +965,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -946,78 +1039,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
